--- a/resources/Models Accuracy.xlsx
+++ b/resources/Models Accuracy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\ML_ObjectivityDetection\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E164D5E-F499-4988-8368-7EA8BDA9AB2B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7E61C4-6A5D-4159-80E5-5ABC1596F4C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{5C12EFDF-3501-48C5-8BE1-2A813ACE6398}"/>
   </bookViews>
@@ -1283,7 +1283,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0033230151163837E-2"/>
+          <c:y val="0.14303405572755418"/>
+          <c:w val="0.88804350128879628"/>
+          <c:h val="0.59575469474984366"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1524,8 +1534,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.43043699537557806"/>
-              <c:y val="0.80087747871358927"/>
+              <c:x val="0.43043693529340221"/>
+              <c:y val="0.81326150020721089"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1654,8 +1664,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.7777777777777778E-2"/>
-              <c:y val="0.26768063170023892"/>
+              <c:x val="1.3791728948679621E-2"/>
+              <c:y val="0.24704094650707356"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2375,7 +2385,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3609,7 +3619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB32BA0B-FACA-455A-9428-3144DFF11DF7}">
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
